--- a/biology/Botanique/Piper_(genre)/Piper_(genre).xlsx
+++ b/biology/Botanique/Piper_(genre)/Piper_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Piper est un genre botanique de la famille des Piperaceae, qui comprend 1 457 espèces validées et 1 170 espèces incertaines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piper est un genre botanique de la famille des Piperaceae, qui comprend 1 457 espèces validées et 1 170 espèces incertaines.
 C'est le genre des poivriers mais aussi des kava et plusieurs plantes aromatiques et médicinales.
 Le poivrier est une liane qui s'accroche à son support par des racines adventives. C'est pourquoi il n'est pas cultivé seul mais au milieu d'autres plantations d'hévéas, de caféiers ou de théiers.
 Certaines espèces produisent une baie qui donne le poivre, une épice qui doit sa saveur piquante à des amides de la pipérine. 
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre vient du latin piper, issu du grec peperi qui  lui-même vient du sanskrit pippali[2].
-Seuls les fruits des espèces Piper nigrum, Piper cubeba et Piper longum ont droit légalement à l'appellation de « poivre »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre vient du latin piper, issu du grec peperi qui  lui-même vient du sanskrit pippali.
+Seuls les fruits des espèces Piper nigrum, Piper cubeba et Piper longum ont droit légalement à l'appellation de « poivre ».
 </t>
         </is>
       </c>
@@ -546,11 +560,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List (18/11/2021)[1] :
-Espèces valides
-Noms non résolus</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (18/11/2021) :
+</t>
         </is>
       </c>
     </row>
@@ -578,7 +593,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Piper aduncum L.
@@ -669,7 +686,9 @@
           <t>Phytopathologie du poivre et du poivrier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La phytopathologie permet de définir la liste des maladies, donc des dangers, à maitriser.
 </t>
